--- a/select_item/類別標籤清單.xlsx
+++ b/select_item/類別標籤清單.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivian\Google 雲端硬碟\utrac\小工具\utrac_label_folder\select_item\check_item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C620F729-F1F2-4CF7-947C-8B2CB71574A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5418A88E-FF25-4D1D-87A0-E3BDA728F198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="類別_問題單數量" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>分類</t>
   </si>
@@ -31,15 +31,9 @@
     <t>41_6</t>
   </si>
   <si>
-    <t>因為費用系統預設的加班費性質和人事人員認知不同，導致人員產生加班費率的問題</t>
-  </si>
-  <si>
     <t>41_8</t>
   </si>
   <si>
-    <t>需透過退回加班費去解決問題</t>
-  </si>
-  <si>
     <t>41_7</t>
   </si>
   <si>
@@ -70,12 +64,6 @@
     <t>同仁加班費請領報表顯示時數和「費用/費用申請/加班費」的顯示時數不同</t>
   </si>
   <si>
-    <t>41_12</t>
-  </si>
-  <si>
-    <t>每小時加班費調整</t>
-  </si>
-  <si>
     <t>1_1</t>
   </si>
   <si>
@@ -91,24 +79,9 @@
     <t>剩餘補休時數(加班補休申請頁面)和申請頁面下方的補休時數顯示不同</t>
   </si>
   <si>
-    <t>16_8</t>
-  </si>
-  <si>
-    <t>刷卡資料維護_3_忘刷卡刪除</t>
-  </si>
-  <si>
     <t>16_9</t>
   </si>
   <si>
-    <t>刷卡資料維護_2_(協助)需刪除刷卡紀錄</t>
-  </si>
-  <si>
-    <t>16_10</t>
-  </si>
-  <si>
-    <t>刷卡資料維護_5_修改卡別</t>
-  </si>
-  <si>
     <t>16_1</t>
   </si>
   <si>
@@ -121,12 +94,6 @@
     <t>和Webitr的「差勤/差勤作業/差勤資料查詢」有關的問題單</t>
   </si>
   <si>
-    <t>16_3</t>
-  </si>
-  <si>
-    <t>有上下班卡，但顯示刷卡不一致(和407_1相同)</t>
-  </si>
-  <si>
     <t>16_4</t>
   </si>
   <si>
@@ -151,314 +118,179 @@
     <t>17_1</t>
   </si>
   <si>
-    <t>新增、調整流程群組相關的問題單</t>
-  </si>
-  <si>
     <t>17_3</t>
   </si>
   <si>
     <t>17_4</t>
   </si>
   <si>
-    <t>人員組織樹_4_移動所屬職位</t>
-  </si>
-  <si>
     <t>17_6</t>
   </si>
   <si>
-    <t>調整流程</t>
-  </si>
-  <si>
     <t>22_1</t>
   </si>
   <si>
-    <t>扣除中午休息時間相關(機關差勤規定_5_扣除中午休息時間)</t>
-  </si>
-  <si>
     <t>22_2</t>
   </si>
   <si>
     <t>22_3</t>
   </si>
   <si>
-    <t>加班資料修改相關(加班資料維護_1_修改加班資料)</t>
-  </si>
-  <si>
-    <t>22_4</t>
-  </si>
-  <si>
-    <t>未滿8小時，以8小時計(勞基法)</t>
-  </si>
-  <si>
     <t>22_10</t>
   </si>
   <si>
-    <t>無法核算/無有效加班時數(刷卡資料維護_3_加班資料未核算)</t>
-  </si>
-  <si>
     <t>22_12</t>
   </si>
   <si>
-    <t>加班資料維護_5_刪除加班資料</t>
-  </si>
-  <si>
     <t>22_13</t>
   </si>
   <si>
-    <t>加班資料維護_4_新增加班資料(包含需先撤銷)</t>
-  </si>
-  <si>
-    <t>22_16</t>
-  </si>
-  <si>
-    <t>加班申請(405_5)</t>
-  </si>
-  <si>
-    <t>22_400</t>
-  </si>
-  <si>
-    <t>一般加班修改為專案加班</t>
-  </si>
-  <si>
     <t>405_10</t>
   </si>
   <si>
-    <t>機關差勤參數_2_新增臨時組別以利免刷卡人員加班申請</t>
-  </si>
-  <si>
     <t>405_1</t>
   </si>
   <si>
     <t>405_2</t>
   </si>
   <si>
-    <t>撤銷差假申請</t>
-  </si>
-  <si>
     <t>405_3</t>
   </si>
   <si>
-    <t>跨處室代申請</t>
-  </si>
-  <si>
     <t>405_4</t>
   </si>
   <si>
-    <t>公出公差相關</t>
-  </si>
-  <si>
     <t>405_6</t>
   </si>
   <si>
-    <t>重新勤惰統計</t>
-  </si>
-  <si>
     <t>405_7</t>
   </si>
   <si>
-    <t>無法申請請假(機關差勤規定_1. 上下班時間規定影響請假時間判定)</t>
-  </si>
-  <si>
-    <t>405_8</t>
-  </si>
-  <si>
-    <t>無法申請請假(機關差勤規定_8. 補請上限天數)</t>
-  </si>
-  <si>
-    <t>405_9</t>
-  </si>
-  <si>
-    <t>無法申請請假(機關差勤規定_9. 健康檢查相關)</t>
-  </si>
-  <si>
     <t>406_1</t>
   </si>
   <si>
-    <t>基本資料維護_1_修改休假天數</t>
-  </si>
-  <si>
     <t>406_2</t>
   </si>
   <si>
-    <t>基本資料維護_2_離職日期相關</t>
-  </si>
-  <si>
     <t>406_3</t>
   </si>
   <si>
-    <t>基本資料維護_3_修改職稱</t>
-  </si>
-  <si>
     <t>406_4</t>
   </si>
   <si>
-    <t>基本資料維護_4_重設密碼</t>
-  </si>
-  <si>
     <t>406_5</t>
   </si>
   <si>
-    <t>基本資料維護_5_出勤異常需修改上班別</t>
-  </si>
-  <si>
     <t>406_6</t>
   </si>
   <si>
-    <t>基本資料維護_6_新增人員</t>
-  </si>
-  <si>
     <t>406_7</t>
   </si>
   <si>
-    <t>基本資料維護_7_費用組別</t>
-  </si>
-  <si>
     <t>406_8</t>
   </si>
   <si>
-    <t>基本資料維護_8_留職停薪相關</t>
-  </si>
-  <si>
     <t>407_1</t>
   </si>
   <si>
-    <t>407_1. (上下班卡未自動轉出勤)(輪班人員)</t>
-  </si>
-  <si>
-    <t>42_2_1</t>
-  </si>
-  <si>
-    <t>已領未休假紀錄未清空</t>
+    <t>因為費用系統預設的加班費性質和使用人員認知不同，導致使用人員產生加班費率的問題</t>
+  </si>
+  <si>
+    <t>問題單的處理方式為協助機關人員退回加班費</t>
+  </si>
+  <si>
+    <t>機關人員申請加班補休時，對於選擇的加班排序有問題</t>
+  </si>
+  <si>
+    <t>問題單處理方式和免刷卡人員設定有關</t>
   </si>
   <si>
     <t>因為機關差勤規定「和差勤狀況判斷有關的參數」及請假，造成同仁覺得出勤狀況有問題</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>因「人員組織樹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>編輯職位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>代理或兼任職位代號」，造成機關人員開立問題單</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>因為機關差勤規定「代理相關」參數設定，造成機關人員產生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Webitr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>使用問題</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>因為機關差勤參數「和加班時數上限相關」的參數設定，造成機關人員產生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Webitr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei UI"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>使用問題</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>機關人員申請加班補休時，對於選擇的加班排序有問題</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>問題單發生原因和「差勤管理&gt;制度管理&gt;人員組織樹」中「批核流程組別」設定有關，造成機關人員產生Webitr使用問題</t>
+  </si>
+  <si>
+    <t>問題單發生原因和「差勤管理&gt;制度管理&gt;人員組織樹&gt;代理職位設定」有關，造成機關人員產生Webitr使用問題</t>
+  </si>
+  <si>
+    <t>問題單發生原因和「差勤管理&gt;制度管理&gt;人員組織樹」的職位調整有關，造成機關人員產生Webitr使用問題</t>
+  </si>
+  <si>
+    <t>問題單處理方式和「系統維護&gt;批核流程設定」有關</t>
+  </si>
+  <si>
+    <t>問題單發生原因和「機關差勤規定」中「扣除中午休息時間」相關參數的調整有關</t>
+  </si>
+  <si>
+    <t>因為機關差勤參數「和加班時數上限相關」的參數設定，造成機關人員產生Webitr使用問題</t>
+  </si>
+  <si>
+    <t>問題單的處理方式和修改加班資料相關</t>
+  </si>
+  <si>
+    <t>因為在刷卡資料維護中，機關人員發現有一筆加班資料未核算，造成Webitr使用問題</t>
+  </si>
+  <si>
+    <t>問題單的處理方式和刪除加班資料有關</t>
+  </si>
+  <si>
+    <t>問題單的處理方式和新增加班資料有關(包含先撤銷)</t>
+  </si>
+  <si>
+    <t>問題單的處理方式和「新增臨時組別」有關</t>
+  </si>
+  <si>
+    <t>問題單發生原因和「機關差勤規定」，代理相關的參數設定有關</t>
+  </si>
+  <si>
+    <t>問題和「撤銷差假申請」有關</t>
+  </si>
+  <si>
+    <t>問題單處理方式和「機關差勤規定＞請假選擇代理人時，可否跨單位找代理人?」有關</t>
+  </si>
+  <si>
+    <t>發問問題和公出、公差相關的問題單</t>
+  </si>
+  <si>
+    <t>問題單處理方式和重新執行勤惰統計有關</t>
+  </si>
+  <si>
+    <t>問題單發生原因和「機關差勤規定」中上下班時間相關的參數設定影響請假時間</t>
+  </si>
+  <si>
+    <t>問題單處理方式和Webitr功能「差勤管理-&gt;制度管理-&gt;基本資料維護」的欄位「休假天數」修改相關</t>
+  </si>
+  <si>
+    <t>問題單處理方式和Webitr功能「差勤管理-&gt;制度管理-&gt;基本資料維護」的欄位「離職日期」修改相關</t>
+  </si>
+  <si>
+    <t>問題單處理方式和Webitr功能「差勤管理-&gt;制度管理-&gt;基本資料維護」的欄位「職稱」修改有關</t>
+  </si>
+  <si>
+    <t>問題單處理方式和Webitr功能「差勤管理-&gt;制度管理-&gt;基本資料維護」的「登入密碼(密碼恢復預設值)」有關</t>
+  </si>
+  <si>
+    <t>問題單處理方式和Webitr功能「差勤管理-&gt;制度管理-&gt;基本資料維護」的「上班別」欄位修改有關</t>
+  </si>
+  <si>
+    <t>問題單處理方式和Webitr功能「差勤管理-&gt;制度管理-&gt;基本資料維護&gt;人員新增」修改有關</t>
+  </si>
+  <si>
+    <t>問題單處理方式和Webitr功能「差勤管理-&gt;制度管理-&gt;基本資料維護」中的費用組別項目調整有關</t>
+  </si>
+  <si>
+    <t>問題單處理方式和Webitr功能「差勤管理-&gt;制度管理-&gt;基本資料維護」，頁簽「離職/停薪/停職/復職」有關</t>
+  </si>
+  <si>
+    <t>問題單發生原因和機關人員的職務類別為「輪班人員」的班別屬性設定或未執行功能「輪班作業&gt;輪班轉出勤」，造成出勤狀況異常(Ex. 刷卡不一致)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -509,27 +341,6 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei UI"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei UI"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -572,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,9 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -844,13 +652,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B999"/>
+  <dimension ref="A1:B988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -873,453 +681,403 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B21" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="B22" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B23" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="B24" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B25" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="B26" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="B27" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B28" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="B29" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B30" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>57</v>
+      <c r="B31" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>105</v>
+        <v>49</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>82</v>
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>84</v>
-      </c>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>88</v>
-      </c>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="14"/>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="14"/>
     </row>
     <row r="65" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4093,39 +3851,6 @@
     </row>
     <row r="988" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B988" s="14"/>
-    </row>
-    <row r="989" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B989" s="14"/>
-    </row>
-    <row r="990" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B990" s="14"/>
-    </row>
-    <row r="991" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B991" s="14"/>
-    </row>
-    <row r="992" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B992" s="14"/>
-    </row>
-    <row r="993" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B993" s="14"/>
-    </row>
-    <row r="994" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B994" s="14"/>
-    </row>
-    <row r="995" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B995" s="14"/>
-    </row>
-    <row r="996" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B996" s="14"/>
-    </row>
-    <row r="997" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B997" s="14"/>
-    </row>
-    <row r="998" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B998" s="14"/>
-    </row>
-    <row r="999" spans="2:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B999" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
